--- a/Code/Results/Cases/Case_9_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.12433075892162</v>
+        <v>24.1665316925472</v>
       </c>
       <c r="C2">
-        <v>18.09589941734247</v>
+        <v>19.33695751991259</v>
       </c>
       <c r="D2">
-        <v>6.426120753169977</v>
+        <v>6.900112581440136</v>
       </c>
       <c r="E2">
-        <v>11.41189995089402</v>
+        <v>11.6498565512699</v>
       </c>
       <c r="F2">
-        <v>30.61365157217677</v>
+        <v>28.59117873321424</v>
       </c>
       <c r="G2">
-        <v>38.35693485747202</v>
+        <v>34.29350912026167</v>
       </c>
       <c r="H2">
-        <v>1.599824614843405</v>
+        <v>1.637629473842786</v>
       </c>
       <c r="I2">
-        <v>2.647140374707488</v>
+        <v>2.539095957537033</v>
       </c>
       <c r="J2">
-        <v>12.12648938695267</v>
+        <v>11.73261859858011</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.39389367981748</v>
+        <v>13.22457899467859</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.985844972605609</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.36790261869049</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,49 +480,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.50624918681016</v>
+        <v>22.55974396962088</v>
       </c>
       <c r="C3">
-        <v>16.92096505862845</v>
+        <v>17.98973812737075</v>
       </c>
       <c r="D3">
-        <v>6.111070217315238</v>
+        <v>6.544668270474853</v>
       </c>
       <c r="E3">
-        <v>10.83148542884181</v>
+        <v>11.06605587974427</v>
       </c>
       <c r="F3">
-        <v>29.56730402653765</v>
+        <v>27.7782058377024</v>
       </c>
       <c r="G3">
-        <v>36.86050656703637</v>
+        <v>33.23318449914624</v>
       </c>
       <c r="H3">
-        <v>1.828580456312269</v>
+        <v>1.766676900067475</v>
       </c>
       <c r="I3">
-        <v>2.891957522477209</v>
+        <v>2.748845328871856</v>
       </c>
       <c r="J3">
-        <v>11.94090977796037</v>
+        <v>11.58852321639289</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.135135446157889</v>
+        <v>13.37316758864582</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.984530682625758</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.125760644433497</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,49 +539,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45297231987571</v>
+        <v>21.51319056187297</v>
       </c>
       <c r="C4">
-        <v>16.16460544530177</v>
+        <v>17.11977587542163</v>
       </c>
       <c r="D4">
-        <v>5.911452391807865</v>
+        <v>6.319243564498684</v>
       </c>
       <c r="E4">
-        <v>10.46042205495006</v>
+        <v>10.69301186807898</v>
       </c>
       <c r="F4">
-        <v>28.91352165066979</v>
+        <v>27.27116764461389</v>
       </c>
       <c r="G4">
-        <v>35.9224892068398</v>
+        <v>32.57647597170168</v>
       </c>
       <c r="H4">
-        <v>2.024051172871165</v>
+        <v>1.947656138151955</v>
       </c>
       <c r="I4">
-        <v>3.047476235385229</v>
+        <v>2.882526152372553</v>
       </c>
       <c r="J4">
-        <v>11.82880136811053</v>
+        <v>11.49899075219975</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.970854472353073</v>
+        <v>13.46227038734889</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.00645903882832</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.972121579699968</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,49 +598,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.0084698532831</v>
+        <v>21.07139079231477</v>
       </c>
       <c r="C5">
-        <v>15.8643968188384</v>
+        <v>16.76935550369744</v>
       </c>
       <c r="D5">
-        <v>5.833804112826584</v>
+        <v>6.230152018948754</v>
       </c>
       <c r="E5">
-        <v>10.30771711224139</v>
+        <v>10.53924427909709</v>
       </c>
       <c r="F5">
-        <v>28.62148203272051</v>
+        <v>27.04316560889434</v>
       </c>
       <c r="G5">
-        <v>35.49416595061405</v>
+        <v>32.27202852796698</v>
       </c>
       <c r="H5">
-        <v>2.105660687183097</v>
+        <v>2.023234327506465</v>
       </c>
       <c r="I5">
-        <v>3.115091968073919</v>
+        <v>2.941652790751594</v>
       </c>
       <c r="J5">
-        <v>11.77545209320873</v>
+        <v>11.45548054297814</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.901908509158629</v>
+        <v>13.48660666166552</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.01209099103715</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.9077228202445</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,49 +657,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.93354625157338</v>
+        <v>20.99691548644271</v>
       </c>
       <c r="C6">
-        <v>15.83458550330043</v>
+        <v>16.72871228610219</v>
       </c>
       <c r="D6">
-        <v>5.827182651028928</v>
+        <v>6.220758517983906</v>
       </c>
       <c r="E6">
-        <v>10.28475413011321</v>
+        <v>10.51573868294541</v>
       </c>
       <c r="F6">
-        <v>28.54462892132658</v>
+        <v>26.98127248567341</v>
       </c>
       <c r="G6">
-        <v>35.37179993033722</v>
+        <v>32.17789689202474</v>
       </c>
       <c r="H6">
-        <v>2.119743848705678</v>
+        <v>2.036247589860249</v>
       </c>
       <c r="I6">
-        <v>3.130144353294379</v>
+        <v>2.955946102762535</v>
       </c>
       <c r="J6">
-        <v>11.75667918232514</v>
+        <v>11.43997159276517</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.889555838926487</v>
+        <v>13.47666222116334</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.00252808219577</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.896253604579448</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,49 +716,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44650022335432</v>
+        <v>21.50648589617764</v>
       </c>
       <c r="C7">
-        <v>16.21543416611231</v>
+        <v>17.15713816603225</v>
       </c>
       <c r="D7">
-        <v>5.927468014589238</v>
+        <v>6.34109774795206</v>
       </c>
       <c r="E7">
-        <v>10.46538039983973</v>
+        <v>10.70017032277896</v>
       </c>
       <c r="F7">
-        <v>28.83343396547208</v>
+        <v>27.16694813079745</v>
       </c>
       <c r="G7">
-        <v>35.77929203240133</v>
+        <v>32.50981826991236</v>
       </c>
       <c r="H7">
-        <v>2.026315536222192</v>
+        <v>1.950498172737894</v>
       </c>
       <c r="I7">
-        <v>3.058358792738592</v>
+        <v>2.89576951006829</v>
       </c>
       <c r="J7">
-        <v>11.80107317145184</v>
+        <v>11.41802461086439</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.967708180018839</v>
+        <v>13.40914523186144</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.963202972603074</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.968161335141818</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,49 +775,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.57806683594877</v>
+        <v>23.62336301842491</v>
       </c>
       <c r="C8">
-        <v>17.76503697961804</v>
+        <v>18.92068797738123</v>
       </c>
       <c r="D8">
-        <v>6.340022949882938</v>
+        <v>6.823457201093825</v>
       </c>
       <c r="E8">
-        <v>11.22358203881788</v>
+        <v>11.46925080505104</v>
       </c>
       <c r="F8">
-        <v>30.15883865194144</v>
+        <v>28.11421547619313</v>
       </c>
       <c r="G8">
-        <v>37.67189986749035</v>
+        <v>33.95752631897385</v>
       </c>
       <c r="H8">
-        <v>1.626826725382126</v>
+        <v>1.582498507875485</v>
       </c>
       <c r="I8">
-        <v>2.743616430785027</v>
+        <v>2.628098311445822</v>
       </c>
       <c r="J8">
-        <v>12.02714318778635</v>
+        <v>11.466307223145</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.303016372872338</v>
+        <v>13.180736980671</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.891248712169604</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.279314102632428</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,49 +834,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.2889595577633</v>
+        <v>27.30407869919035</v>
       </c>
       <c r="C9">
-        <v>20.44048287056136</v>
+        <v>21.98802795919421</v>
       </c>
       <c r="D9">
-        <v>7.070312057689178</v>
+        <v>7.654684297864556</v>
       </c>
       <c r="E9">
-        <v>12.58030702429451</v>
+        <v>12.83692139836862</v>
       </c>
       <c r="F9">
-        <v>32.78510028229346</v>
+        <v>30.14698070454048</v>
       </c>
       <c r="G9">
-        <v>41.44416380047727</v>
+        <v>36.7380406289569</v>
       </c>
       <c r="H9">
-        <v>2.215967363621372</v>
+        <v>2.203384487228415</v>
       </c>
       <c r="I9">
-        <v>2.795533929636553</v>
+        <v>2.833904068870178</v>
       </c>
       <c r="J9">
-        <v>12.53180854456861</v>
+        <v>11.80156993930838</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.92020626149395</v>
+        <v>12.83477181941642</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.04381715034302</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.856406709558883</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,49 +893,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.73100890138601</v>
+        <v>29.7208520439227</v>
       </c>
       <c r="C10">
-        <v>22.25514026120394</v>
+        <v>23.99068180714188</v>
       </c>
       <c r="D10">
-        <v>7.527520563514098</v>
+        <v>8.205196615707507</v>
       </c>
       <c r="E10">
-        <v>13.29690346584348</v>
+        <v>13.56964059166268</v>
       </c>
       <c r="F10">
-        <v>34.25305537268666</v>
+        <v>31.08404168665134</v>
       </c>
       <c r="G10">
-        <v>43.53488757944888</v>
+        <v>38.56011342423545</v>
       </c>
       <c r="H10">
-        <v>2.700535088966952</v>
+        <v>2.64539140160017</v>
       </c>
       <c r="I10">
-        <v>3.192822996700372</v>
+        <v>3.172318901469388</v>
       </c>
       <c r="J10">
-        <v>12.79234952660787</v>
+        <v>11.64382553228022</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.229223297774913</v>
+        <v>12.39243742613511</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.05701818235483</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.134585750918701</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,49 +952,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.75297601942165</v>
+        <v>30.73325293637972</v>
       </c>
       <c r="C11">
-        <v>23.05376844196635</v>
+        <v>24.53817422099076</v>
       </c>
       <c r="D11">
-        <v>7.290159193761641</v>
+        <v>7.965504212649857</v>
       </c>
       <c r="E11">
-        <v>11.86280831319039</v>
+        <v>12.11373763861742</v>
       </c>
       <c r="F11">
-        <v>31.7620800640016</v>
+        <v>28.54421221155177</v>
       </c>
       <c r="G11">
-        <v>39.98018408136764</v>
+        <v>36.17915735382534</v>
       </c>
       <c r="H11">
-        <v>3.421664668750386</v>
+        <v>3.366812621836746</v>
       </c>
       <c r="I11">
-        <v>3.311176894457777</v>
+        <v>3.271194823582201</v>
       </c>
       <c r="J11">
-        <v>11.96042876267147</v>
+        <v>10.37271280508541</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.42095122243546</v>
+        <v>11.31734825870792</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.927035086990486</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.323345215047004</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,49 +1011,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.12104340159843</v>
+        <v>31.09919755918157</v>
       </c>
       <c r="C12">
-        <v>23.294946264068</v>
+        <v>24.5504220807146</v>
       </c>
       <c r="D12">
-        <v>6.971696243626226</v>
+        <v>7.602748701104939</v>
       </c>
       <c r="E12">
-        <v>10.5503875628413</v>
+        <v>10.76466893675007</v>
       </c>
       <c r="F12">
-        <v>29.42799525243834</v>
+        <v>26.382455523847</v>
       </c>
       <c r="G12">
-        <v>36.676890388026</v>
+        <v>33.72511462035159</v>
       </c>
       <c r="H12">
-        <v>4.527679168496372</v>
+        <v>4.485917178788201</v>
       </c>
       <c r="I12">
-        <v>3.329616295735009</v>
+        <v>3.284631678927852</v>
       </c>
       <c r="J12">
-        <v>11.2402786461533</v>
+        <v>9.593359654916531</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.760814239731093</v>
+        <v>10.66739153881549</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.091469381999513</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.671358222166759</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,49 +1070,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.02042843388795</v>
+        <v>31.00258168880443</v>
       </c>
       <c r="C13">
-        <v>23.19391792122205</v>
+        <v>24.22126681603996</v>
       </c>
       <c r="D13">
-        <v>6.584395018773667</v>
+        <v>7.117607088434398</v>
       </c>
       <c r="E13">
-        <v>9.257579839734788</v>
+        <v>9.415895301866577</v>
       </c>
       <c r="F13">
-        <v>26.92856467506753</v>
+        <v>24.33167144208553</v>
       </c>
       <c r="G13">
-        <v>33.1061050467636</v>
+        <v>30.72161949649777</v>
       </c>
       <c r="H13">
-        <v>5.744525127820482</v>
+        <v>5.7166908060899</v>
       </c>
       <c r="I13">
-        <v>3.275615038035075</v>
+        <v>3.239192318725947</v>
       </c>
       <c r="J13">
-        <v>10.5199272031073</v>
+        <v>9.182794211961388</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.189521508170187</v>
+        <v>10.25113456021767</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.427075826866949</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.119368984197397</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,49 +1129,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.73703981566495</v>
+        <v>30.72456951979665</v>
       </c>
       <c r="C14">
-        <v>22.9802498848536</v>
+        <v>23.84256967349888</v>
       </c>
       <c r="D14">
-        <v>6.282234061614046</v>
+        <v>6.723553960495009</v>
       </c>
       <c r="E14">
-        <v>8.389184716618038</v>
+        <v>8.501594274426031</v>
       </c>
       <c r="F14">
-        <v>25.07448239010113</v>
+        <v>22.91650468649106</v>
       </c>
       <c r="G14">
-        <v>30.42232857566694</v>
+        <v>28.32261481604321</v>
       </c>
       <c r="H14">
-        <v>6.637888564038233</v>
+        <v>6.618550688451773</v>
       </c>
       <c r="I14">
-        <v>3.206500986606845</v>
+        <v>3.182353823527792</v>
       </c>
       <c r="J14">
-        <v>10.01276927076951</v>
+        <v>9.031713696825912</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.861527402738409</v>
+        <v>10.05094530600232</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.048108194163913</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.809026841051917</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,49 +1188,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.56640435973619</v>
+        <v>30.55652477865755</v>
       </c>
       <c r="C15">
-        <v>22.87086693776654</v>
+        <v>23.68967338977102</v>
       </c>
       <c r="D15">
-        <v>6.198257129241759</v>
+        <v>6.607042629523144</v>
       </c>
       <c r="E15">
-        <v>8.176020737205008</v>
+        <v>8.275867062697191</v>
       </c>
       <c r="F15">
-        <v>24.56488184591758</v>
+        <v>22.56860296884271</v>
       </c>
       <c r="G15">
-        <v>29.66728710841811</v>
+        <v>27.59428023438599</v>
       </c>
       <c r="H15">
-        <v>6.839831204803214</v>
+        <v>6.823077003125388</v>
       </c>
       <c r="I15">
-        <v>3.174840393554176</v>
+        <v>3.157140472214294</v>
       </c>
       <c r="J15">
-        <v>9.881750071280784</v>
+        <v>9.045475418891245</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.78917878702406</v>
+        <v>10.02616493586664</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.979974155537133</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.7426665516212</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,49 +1247,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.58655583315856</v>
+        <v>29.58869755355894</v>
       </c>
       <c r="C16">
-        <v>22.17270889125333</v>
+        <v>22.98225966546371</v>
       </c>
       <c r="D16">
-        <v>6.070733989612056</v>
+        <v>6.400417291989314</v>
       </c>
       <c r="E16">
-        <v>8.061326140885097</v>
+        <v>8.153777085645626</v>
       </c>
       <c r="F16">
-        <v>24.29985345589947</v>
+        <v>22.72679277721787</v>
       </c>
       <c r="G16">
-        <v>29.22638767840683</v>
+        <v>26.76538456683527</v>
       </c>
       <c r="H16">
-        <v>6.547651096302758</v>
+        <v>6.538775835136834</v>
       </c>
       <c r="I16">
-        <v>3.018705470001459</v>
+        <v>3.029686175823759</v>
       </c>
       <c r="J16">
-        <v>9.891744172103522</v>
+        <v>9.538124987378502</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.751683008064983</v>
+        <v>10.27584781939817</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.242136032686461</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.720761363370126</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,49 +1306,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.97554908498984</v>
+        <v>28.98374458905068</v>
       </c>
       <c r="C17">
-        <v>21.74626113834925</v>
+        <v>22.63335097399433</v>
       </c>
       <c r="D17">
-        <v>6.139485554524866</v>
+        <v>6.466063183740564</v>
       </c>
       <c r="E17">
-        <v>8.432003070629221</v>
+        <v>8.541282214051501</v>
       </c>
       <c r="F17">
-        <v>25.10283208120805</v>
+        <v>23.57603681651364</v>
       </c>
       <c r="G17">
-        <v>30.36093206013151</v>
+        <v>27.51918390072204</v>
       </c>
       <c r="H17">
-        <v>5.794644236169659</v>
+        <v>5.788794494436566</v>
       </c>
       <c r="I17">
-        <v>2.935513563726968</v>
+        <v>2.96141375805625</v>
       </c>
       <c r="J17">
-        <v>10.16753469781281</v>
+        <v>9.961206648741085</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.882783539693513</v>
+        <v>10.58735311860545</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.61177559084784</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.854817484857201</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,49 +1365,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.6274842881494</v>
+        <v>28.63773908510344</v>
       </c>
       <c r="C18">
-        <v>21.47748364622175</v>
+        <v>22.54136898110361</v>
       </c>
       <c r="D18">
-        <v>6.376099431745691</v>
+        <v>6.752917306048846</v>
       </c>
       <c r="E18">
-        <v>9.344788416565287</v>
+        <v>9.488286875458291</v>
       </c>
       <c r="F18">
-        <v>26.97595020860159</v>
+        <v>25.23360825309046</v>
       </c>
       <c r="G18">
-        <v>33.07456269661473</v>
+        <v>29.68429316987067</v>
       </c>
       <c r="H18">
-        <v>4.602302153123776</v>
+        <v>4.595998484505643</v>
       </c>
       <c r="I18">
-        <v>2.904687123945392</v>
+        <v>2.934584307409459</v>
       </c>
       <c r="J18">
-        <v>10.72881870498377</v>
+        <v>10.48467980322058</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.257691449417514</v>
+        <v>11.06087921382142</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.185895861008371</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.222748086136543</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,49 +1424,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.52231501460258</v>
+        <v>28.53124202166711</v>
       </c>
       <c r="C19">
-        <v>21.44367678066041</v>
+        <v>22.74105772211358</v>
       </c>
       <c r="D19">
-        <v>6.75406016129116</v>
+        <v>7.211917161593995</v>
       </c>
       <c r="E19">
-        <v>10.71254344321012</v>
+        <v>10.89863872169962</v>
       </c>
       <c r="F19">
-        <v>29.45219386389318</v>
+        <v>27.34518664165164</v>
       </c>
       <c r="G19">
-        <v>36.62014897876934</v>
+        <v>32.5721991454176</v>
       </c>
       <c r="H19">
-        <v>3.317649675494828</v>
+        <v>3.305625915093379</v>
       </c>
       <c r="I19">
-        <v>2.930335230275225</v>
+        <v>2.957341174227759</v>
       </c>
       <c r="J19">
-        <v>11.44706362111475</v>
+        <v>11.06315220282872</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.894978523829185</v>
+        <v>11.6349029784405</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.879684125624372</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.845894603458744</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,49 +1483,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.10671819502402</v>
+        <v>29.10445509084204</v>
       </c>
       <c r="C20">
-        <v>21.92162233771693</v>
+        <v>23.60997949394283</v>
       </c>
       <c r="D20">
-        <v>7.450118509156834</v>
+        <v>8.073452461061313</v>
       </c>
       <c r="E20">
-        <v>13.12044826575805</v>
+        <v>13.3770395415844</v>
       </c>
       <c r="F20">
-        <v>33.65259674489542</v>
+        <v>30.76656918304569</v>
       </c>
       <c r="G20">
-        <v>42.60989896290329</v>
+        <v>37.58389328229404</v>
       </c>
       <c r="H20">
-        <v>2.569902870151287</v>
+        <v>2.528807338157207</v>
       </c>
       <c r="I20">
-        <v>3.097650419678283</v>
+        <v>3.098279529955158</v>
       </c>
       <c r="J20">
-        <v>12.64125031748337</v>
+        <v>11.80956780380345</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.13837791567963</v>
+        <v>12.45844168093317</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.986913845520885</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.056272419496391</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,49 +1542,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.89921875586854</v>
+        <v>30.8712770026298</v>
       </c>
       <c r="C21">
-        <v>23.23722355974741</v>
+        <v>25.02263328921222</v>
       </c>
       <c r="D21">
-        <v>7.862632141120613</v>
+        <v>8.699817908052996</v>
       </c>
       <c r="E21">
-        <v>13.9677988589869</v>
+        <v>14.29485619942267</v>
       </c>
       <c r="F21">
-        <v>35.35456467754285</v>
+        <v>31.39911820690792</v>
       </c>
       <c r="G21">
-        <v>45.04520313002612</v>
+        <v>40.58182385434599</v>
       </c>
       <c r="H21">
-        <v>2.964575971505029</v>
+        <v>2.877228406396481</v>
       </c>
       <c r="I21">
-        <v>3.408244132495637</v>
+        <v>3.351668718614065</v>
       </c>
       <c r="J21">
-        <v>13.0271907449921</v>
+        <v>10.85951397509304</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.547368889589629</v>
+        <v>12.05608331060881</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.934287351956801</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.42060515525931</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,49 +1601,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.02036882547239</v>
+        <v>31.97509417129428</v>
       </c>
       <c r="C22">
-        <v>24.01485244287372</v>
+        <v>25.84410914012971</v>
       </c>
       <c r="D22">
-        <v>8.081812436791537</v>
+        <v>9.059160892406442</v>
       </c>
       <c r="E22">
-        <v>14.39323073968873</v>
+        <v>14.76681280220436</v>
       </c>
       <c r="F22">
-        <v>36.34690875987525</v>
+        <v>31.68488094323689</v>
       </c>
       <c r="G22">
-        <v>46.49051170858063</v>
+        <v>42.49061537974701</v>
       </c>
       <c r="H22">
-        <v>3.209803150077047</v>
+        <v>3.092859912614068</v>
       </c>
       <c r="I22">
-        <v>3.60266876401679</v>
+        <v>3.508220061492032</v>
       </c>
       <c r="J22">
-        <v>13.2572429450184</v>
+        <v>10.1840519193912</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.752269696279797</v>
+        <v>11.77185270770419</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.882225453142949</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.596825335542396</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,49 +1660,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.42705725133352</v>
+        <v>31.39157001835078</v>
       </c>
       <c r="C23">
-        <v>23.55554300926529</v>
+        <v>25.37978133431473</v>
       </c>
       <c r="D23">
-        <v>7.949878491688346</v>
+        <v>8.83747774918969</v>
       </c>
       <c r="E23">
-        <v>14.16100977373741</v>
+        <v>14.5037246065028</v>
       </c>
       <c r="F23">
-        <v>35.89202317506051</v>
+        <v>31.67462963096567</v>
       </c>
       <c r="G23">
-        <v>45.85037635372197</v>
+        <v>41.45891162456915</v>
       </c>
       <c r="H23">
-        <v>3.080368641781223</v>
+        <v>2.98035782331232</v>
       </c>
       <c r="I23">
-        <v>3.496084365991918</v>
+        <v>3.42154394316608</v>
       </c>
       <c r="J23">
-        <v>13.16273581969107</v>
+        <v>10.69135063169912</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.645514931424135</v>
+        <v>11.98499845157258</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.99099314996473</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.507372910120745</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,49 +1719,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.08020040799581</v>
+        <v>29.07777330491363</v>
       </c>
       <c r="C24">
-        <v>21.82827037177066</v>
+        <v>23.54906890561393</v>
       </c>
       <c r="D24">
-        <v>7.46132316589851</v>
+        <v>8.095369228509947</v>
       </c>
       <c r="E24">
-        <v>13.26405734763241</v>
+        <v>13.52581365223389</v>
       </c>
       <c r="F24">
-        <v>34.02565494192275</v>
+        <v>31.08950775674735</v>
       </c>
       <c r="G24">
-        <v>43.18003838503844</v>
+        <v>38.05061674905191</v>
       </c>
       <c r="H24">
-        <v>2.580825500973237</v>
+        <v>2.538938387376934</v>
       </c>
       <c r="I24">
-        <v>3.092939068309177</v>
+        <v>3.09108583176324</v>
       </c>
       <c r="J24">
-        <v>12.76449175575363</v>
+        <v>11.91680620422804</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.227405086312508</v>
+        <v>12.58819993230878</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.13632801578903</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.143553599865696</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,49 +1778,55 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.33385082595858</v>
+        <v>26.35791210403184</v>
       </c>
       <c r="C25">
-        <v>19.82871140226029</v>
+        <v>21.27454986189217</v>
       </c>
       <c r="D25">
-        <v>6.905126484714017</v>
+        <v>7.44943471196111</v>
       </c>
       <c r="E25">
-        <v>12.23720817566834</v>
+        <v>12.4854687658715</v>
       </c>
       <c r="F25">
-        <v>31.96298497372149</v>
+        <v>29.54742903800523</v>
       </c>
       <c r="G25">
-        <v>40.22311100084587</v>
+        <v>35.73128165889944</v>
       </c>
       <c r="H25">
-        <v>2.024030386418138</v>
+        <v>2.027737916285438</v>
       </c>
       <c r="I25">
-        <v>2.649565653030086</v>
+        <v>2.712305605487995</v>
       </c>
       <c r="J25">
-        <v>12.34756078148192</v>
+        <v>11.75268014205234</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.754523839074665</v>
+        <v>12.89305818953901</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.940724710367137</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.703282194564598</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
